--- a/final_eigenvec_three.xlsx
+++ b/final_eigenvec_three.xlsx
@@ -477,210 +477,210 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.343244920897059e-16</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.947634585102671e-09</v>
+        <v>-1.838869991043155e-24</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.032193824579629e-09</v>
+        <v>-5.098409963477564e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7697180306165639</v>
+        <v>6.794299399869114e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.6383843930463079</v>
+        <v>8.704425014476513e-10</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.293246980296613e-10</v>
+        <v>-1.845286096342275e-19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.123965261903767e-08</v>
+        <v>-4.190358279041975e-19</v>
       </c>
       <c r="H2" t="n">
-        <v>2.368932760649582e-16</v>
+        <v>9.193681366207474e-17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.649211692283119e-09</v>
+        <v>2.94356836485284e-09</v>
       </c>
       <c r="B3" t="n">
-        <v>1.835264376468077e-16</v>
+        <v>1.440022058933537e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.078745890177158e-17</v>
+        <v>0.5773502691896257</v>
       </c>
       <c r="D3" t="n">
-        <v>1.119108051143001e-08</v>
+        <v>-0.269288202795956</v>
       </c>
       <c r="E3" t="n">
-        <v>1.043789254982485e-09</v>
+        <v>-0.8378448998302516</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6664055555824315</v>
+        <v>-5.416717418576208e-09</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.7071067811865376</v>
+        <v>-9.210458503497138e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.377139329563496e-16</v>
+        <v>-1.31101968876062e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7.947634563968483e-09</v>
+        <v>2.943568364852839e-09</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>1.839008458408202e-16</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2556979441894378</v>
+        <v>0.5773502691896256</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.117437584614541e-09</v>
+        <v>0.6999491627472825</v>
       </c>
       <c r="E4" t="n">
-        <v>5.073645948635985e-09</v>
+        <v>-0.003760461725488276</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.249062577441704e-16</v>
+        <v>-3.750922484019782e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.388638165067836e-16</v>
+        <v>4.694861917622865e-09</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.649211788726484e-09</v>
+        <v>-1.311019689736824e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>6.684115925748156e-17</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.94763448669838e-09</v>
+        <v>6.11356511090978e-09</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.651235375788799e-09</v>
+        <v>1.311019704894229e-08</v>
       </c>
       <c r="D5" t="n">
-        <v>7.463472952307691e-19</v>
+        <v>4.889622688356576e-09</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.367231477787319e-17</v>
+        <v>-9.555388403071646e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>1.765449294205994e-09</v>
+        <v>0.810930250681741</v>
       </c>
       <c r="G5" t="n">
-        <v>1.873275338751654e-09</v>
+        <v>0.405612459276856</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.267016665412427e-16</v>
+        <v>0.5773502691896256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.476333710047924e-16</v>
+        <v>2.943568364852839e-09</v>
       </c>
       <c r="B6" t="n">
-        <v>2.667128113919833e-16</v>
+        <v>1.483390145832956e-16</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.396379048891659e-17</v>
+        <v>0.5773502691896256</v>
       </c>
       <c r="D6" t="n">
-        <v>1.119108059244861e-08</v>
+        <v>-0.661479427801275</v>
       </c>
       <c r="E6" t="n">
-        <v>1.043789352668925e-09</v>
+        <v>0.5458953954340031</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7455894550547711</v>
+        <v>9.246581246744207e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7071067811865573</v>
+        <v>4.694860146904059e-09</v>
       </c>
       <c r="H6" t="n">
-        <v>-7.947635146284023e-09</v>
+        <v>-1.311019741495615e-08</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.02470788531056e-16</v>
+        <v>6.684115925748156e-17</v>
       </c>
       <c r="B7" t="n">
-        <v>3.608163333475289e-18</v>
+        <v>6.113565035063833e-09</v>
       </c>
       <c r="C7" t="n">
-        <v>7.683429160935887e-09</v>
+        <v>1.311019704894229e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6383840171430971</v>
+        <v>-1.056771577642464e-08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7697177188521107</v>
+        <v>-3.314725671036936e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.293246768187839e-10</v>
+        <v>-0.3338446428686386</v>
       </c>
       <c r="G7" t="n">
-        <v>1.123965273593441e-08</v>
+        <v>0.4056126683749276</v>
       </c>
       <c r="H7" t="n">
-        <v>-7.366351044990894e-17</v>
+        <v>0.5773502691896255</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.73675879010083e-17</v>
+        <v>6.684115925748156e-17</v>
       </c>
       <c r="B8" t="n">
-        <v>2.649211409357915e-09</v>
+        <v>6.11356513604421e-09</v>
       </c>
       <c r="C8" t="n">
-        <v>1.883745138141872e-09</v>
+        <v>1.311019704894229e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>1.871758246134505e-17</v>
+        <v>4.367765076697625e-10</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.182831348330902e-17</v>
+        <v>6.155271759772098e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>5.925672483642533e-09</v>
+        <v>-0.4805620490188127</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.619826302638178e-09</v>
+        <v>-0.819119585978233</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.5773502691896255</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7.947634585102666e-09</v>
+        <v>3.686671274240586e-24</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.761428532473386e-17</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9667567229335905</v>
+        <v>-5.2138150168578e-16</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.073642893223257e-09</v>
+        <v>2.27074246129384e-17</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.117435163115368e-09</v>
+        <v>6.544021199226231e-18</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.592679816030618e-17</v>
+        <v>2.125359453365149e-11</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.977621900135516e-17</v>
+        <v>4.826334368285004e-11</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.649211528367556e-09</v>
+        <v>-1.058900541277894e-08</v>
       </c>
     </row>
   </sheetData>

--- a/final_eigenvec_three.xlsx
+++ b/final_eigenvec_three.xlsx
@@ -477,210 +477,210 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>1.00591214292313e-17</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.838869991043155e-24</v>
+        <v>2.649211528367557e-09</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.098409963477564e-09</v>
+        <v>-1.803218161464972e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>6.794299399869114e-10</v>
+        <v>-1.803218094543811e-17</v>
       </c>
       <c r="E2" t="n">
-        <v>8.704425014476513e-10</v>
+        <v>-3.973817292551337e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.845286096342275e-19</v>
+        <v>9.474734324747804e-17</v>
       </c>
       <c r="G2" t="n">
-        <v>-4.190358279041975e-19</v>
+        <v>-2.649211528367561e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>9.193681366207474e-17</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.94356836485284e-09</v>
+        <v>1.986908679383756e-09</v>
       </c>
       <c r="B3" t="n">
-        <v>1.440022058933537e-16</v>
+        <v>1.213087214684723e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5773502691896257</v>
+        <v>2.809913128613295e-09</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.269288202795956</v>
+        <v>2.809913181480507e-09</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.8378448998302516</v>
+        <v>3.144694327693793e-18</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.416717418576208e-09</v>
+        <v>-1.15684400898509e-18</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.210458503497138e-09</v>
+        <v>-0.9999999999999998</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.31101968876062e-08</v>
+        <v>-2.649211528367563e-08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.943568364852839e-09</v>
+        <v>3.455493171117155e-09</v>
       </c>
       <c r="B4" t="n">
-        <v>1.839008458408202e-16</v>
+        <v>2.716594844344608e-16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5773502691896256</v>
+        <v>3.93072273147055e-17</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6999491627472825</v>
+        <v>-4.085951420014931e-17</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.003760461725488276</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.750922484019782e-09</v>
+        <v>7.947634588225746e-09</v>
       </c>
       <c r="G4" t="n">
-        <v>4.694861917622865e-09</v>
+        <v>3.947258886586125e-17</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.311019689736824e-08</v>
+        <v>-3.973817292551335e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6.684115925748156e-17</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6.11356511090978e-09</v>
+        <v>-7.667299130651127e-17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.311019704894229e-08</v>
+        <v>-2.809913260344207e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>4.889622688356576e-09</v>
+        <v>2.809913049174619e-09</v>
       </c>
       <c r="E5" t="n">
-        <v>-9.555388403071646e-09</v>
+        <v>3.455493190261075e-09</v>
       </c>
       <c r="F5" t="n">
-        <v>0.810930250681741</v>
+        <v>-6.674689184972193e-17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.405612459276856</v>
+        <v>1.986908683235574e-09</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5773502691896256</v>
+        <v>5.630979130402166e-17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.943568364852839e-09</v>
+        <v>1.223841742907303e-16</v>
       </c>
       <c r="B6" t="n">
-        <v>1.483390145832956e-16</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5773502691896256</v>
+        <v>-8.02832342733883e-09</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.661479427801275</v>
+        <v>-8.028323170308924e-09</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5458953954340031</v>
+        <v>-1.217693489299425e-16</v>
       </c>
       <c r="F6" t="n">
-        <v>9.246581246744207e-09</v>
+        <v>3.973817290584734e-09</v>
       </c>
       <c r="G6" t="n">
-        <v>4.694860146904059e-09</v>
+        <v>7.890258215632507e-17</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.311019741495615e-08</v>
+        <v>-2.649211528367558e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.684115925748156e-17</v>
+        <v>7.881563349259392e-17</v>
       </c>
       <c r="B7" t="n">
-        <v>6.113565035063833e-09</v>
+        <v>1.135376369300381e-08</v>
       </c>
       <c r="C7" t="n">
-        <v>1.311019704894229e-08</v>
+        <v>0.7071067801544311</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.056771577642464e-08</v>
+        <v>0.7071067822186644</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.314725671036936e-09</v>
+        <v>3.876490079053841e-23</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3338446428686386</v>
+        <v>-6.858456354163538e-17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4056126683749276</v>
+        <v>3.973817292551335e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5773502691896255</v>
+        <v>1.006976594900757e-16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.684115925748156e-17</v>
+        <v>-1.153162457319123e-16</v>
       </c>
       <c r="B8" t="n">
-        <v>6.11356513604421e-09</v>
+        <v>3.973817292551357e-09</v>
       </c>
       <c r="C8" t="n">
-        <v>1.311019704894229e-08</v>
+        <v>4.32294321760171e-09</v>
       </c>
       <c r="D8" t="n">
-        <v>4.367765076697625e-10</v>
+        <v>-4.322943412427261e-09</v>
       </c>
       <c r="E8" t="n">
-        <v>6.155271759772098e-09</v>
+        <v>-7.947634585102837e-09</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4805620490188127</v>
+        <v>-1</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.819119585978233</v>
+        <v>4.702970443754381e-24</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5773502691896255</v>
+        <v>5.263741291526679e-17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.686671274240586e-24</v>
+        <v>3.973817292551336e-09</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>1.74025732082976e-16</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.2138150168578e-16</v>
+        <v>0.707106782218664</v>
       </c>
       <c r="D9" t="n">
-        <v>2.27074246129384e-17</v>
+        <v>-0.7071067801544305</v>
       </c>
       <c r="E9" t="n">
-        <v>6.544021199226231e-18</v>
+        <v>1.190063260050742e-16</v>
       </c>
       <c r="F9" t="n">
-        <v>2.125359453365149e-11</v>
+        <v>6.113565065463586e-09</v>
       </c>
       <c r="G9" t="n">
-        <v>4.826334368285004e-11</v>
+        <v>-2.368683586441932e-17</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.058900541277894e-08</v>
+        <v>-7.244264198184807e-25</v>
       </c>
     </row>
   </sheetData>

--- a/final_eigenvec_three.xlsx
+++ b/final_eigenvec_three.xlsx
@@ -477,210 +477,210 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.00591214292313e-17</v>
+        <v>4.210993389743841e-17</v>
       </c>
       <c r="B2" t="n">
-        <v>2.649211528367557e-09</v>
+        <v>-1.404956599863137e-09</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.803218161464972e-17</v>
+        <v>1.404956541787249e-09</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.803218094543811e-17</v>
+        <v>1.605664683664091e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.973817292551337e-09</v>
+        <v>-1.605664632315519e-09</v>
       </c>
       <c r="F2" t="n">
-        <v>9.474734324747804e-17</v>
+        <v>2.649211528367559e-09</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.649211528367561e-08</v>
+        <v>4.384233835246623e-25</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999999999999998</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.986908679383756e-09</v>
+        <v>1.589527014328168e-08</v>
       </c>
       <c r="B3" t="n">
-        <v>1.213087214684723e-16</v>
+        <v>-0.707106788287462</v>
       </c>
       <c r="C3" t="n">
-        <v>2.809913128613295e-09</v>
+        <v>0.707106767487931</v>
       </c>
       <c r="D3" t="n">
-        <v>2.809913181480507e-09</v>
+        <v>1.674948991511367e-16</v>
       </c>
       <c r="E3" t="n">
-        <v>3.144694327693793e-18</v>
+        <v>-1.449358012366916e-16</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.15684400898509e-18</v>
+        <v>4.390964146466659e-16</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.9999999999999998</v>
+        <v>1.852830920541078e-17</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.649211528367563e-08</v>
+        <v>1.986908646258517e-09</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.455493171117155e-09</v>
+        <v>-3.647451519611991e-18</v>
       </c>
       <c r="B4" t="n">
-        <v>2.716594844344608e-16</v>
+        <v>-5.619826075277372e-09</v>
       </c>
       <c r="C4" t="n">
-        <v>3.93072273147055e-17</v>
+        <v>-5.61982665973464e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.085951420014931e-17</v>
+        <v>1.123965233737716e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>1.123965294947527e-08</v>
       </c>
       <c r="F4" t="n">
-        <v>7.947634588225746e-09</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.947258886586125e-17</v>
+        <v>3.789887704342568e-17</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.973817292551335e-09</v>
+        <v>2.649211528429884e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5.896222632429972e-16</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.667299130651127e-17</v>
+        <v>-0.7071067740856329</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.809913260344207e-09</v>
+        <v>-0.7071067948851638</v>
       </c>
       <c r="D5" t="n">
-        <v>2.809913049174619e-09</v>
+        <v>5.140940327343803e-16</v>
       </c>
       <c r="E5" t="n">
-        <v>3.455493190261075e-09</v>
+        <v>-3.616984122225855e-16</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.674689184972193e-17</v>
+        <v>-7.947634616469525e-09</v>
       </c>
       <c r="G5" t="n">
-        <v>1.986908683235574e-09</v>
+        <v>-3.179053834040607e-09</v>
       </c>
       <c r="H5" t="n">
-        <v>5.630979130402166e-17</v>
+        <v>-9.13924336893352e-18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.223841742907303e-16</v>
+        <v>7.947634969172131e-09</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4.564240186975949e-16</v>
       </c>
       <c r="C6" t="n">
-        <v>-8.02832342733883e-09</v>
+        <v>7.566387285289142e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.028323170308924e-09</v>
+        <v>0.7071067820343554</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.217693489299425e-16</v>
+        <v>-0.7071067786893143</v>
       </c>
       <c r="F6" t="n">
-        <v>3.973817290584734e-09</v>
+        <v>3.78100051938127e-16</v>
       </c>
       <c r="G6" t="n">
-        <v>7.890258215632507e-17</v>
+        <v>2.631882682533075e-17</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.649211528367558e-09</v>
+        <v>2.270752738600764e-09</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.881563349259392e-17</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>1.135376369300381e-08</v>
+        <v>1.12396537618749e-08</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7071067801544311</v>
+        <v>-1.123965358316452e-08</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7071067822186644</v>
+        <v>-5.619826530810458e-09</v>
       </c>
       <c r="E7" t="n">
-        <v>3.876490079053841e-23</v>
+        <v>5.619826262165686e-09</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.858456354163538e-17</v>
+        <v>1.42936809852426e-21</v>
       </c>
       <c r="G7" t="n">
-        <v>3.973817292551335e-09</v>
+        <v>-2.649211528367233e-09</v>
       </c>
       <c r="H7" t="n">
-        <v>1.006976594900757e-16</v>
+        <v>-4.224605041907179e-18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.153162457319123e-16</v>
+        <v>7.086460737930065e-17</v>
       </c>
       <c r="B8" t="n">
-        <v>3.973817292551357e-09</v>
+        <v>-5.382081487161585e-17</v>
       </c>
       <c r="C8" t="n">
-        <v>4.32294321760171e-09</v>
+        <v>-5.382078498124982e-17</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.322943412427261e-09</v>
+        <v>0.7071067803387396</v>
       </c>
       <c r="E8" t="n">
-        <v>-7.947634585102837e-09</v>
+        <v>0.7071067836837808</v>
       </c>
       <c r="F8" t="n">
-        <v>-1</v>
+        <v>-1.589526917020537e-08</v>
       </c>
       <c r="G8" t="n">
-        <v>4.702970443754381e-24</v>
+        <v>-3.973817292552433e-09</v>
       </c>
       <c r="H8" t="n">
-        <v>5.263741291526679e-17</v>
+        <v>-1.117202233402689e-17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.973817292551336e-09</v>
+        <v>2.649211528367808e-09</v>
       </c>
       <c r="B9" t="n">
-        <v>1.74025732082976e-16</v>
+        <v>-2.247930458352617e-09</v>
       </c>
       <c r="C9" t="n">
-        <v>0.707106782218664</v>
+        <v>-2.247930610230958e-09</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7071067801544305</v>
+        <v>2.809913117886359e-09</v>
       </c>
       <c r="E9" t="n">
-        <v>1.190063260050742e-16</v>
+        <v>2.809913198175429e-09</v>
       </c>
       <c r="F9" t="n">
-        <v>6.113565065463586e-09</v>
+        <v>-1.263297912747426e-16</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.368683586441932e-17</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.244264198184807e-25</v>
+        <v>1.568020354767357e-25</v>
       </c>
     </row>
   </sheetData>

--- a/final_eigenvec_three.xlsx
+++ b/final_eigenvec_three.xlsx
@@ -477,25 +477,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.210993389743841e-17</v>
+        <v>6.217406212239571e-21</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.404956599863137e-09</v>
+        <v>-5.275625057681557e-21</v>
       </c>
       <c r="C2" t="n">
-        <v>1.404956541787249e-09</v>
+        <v>3.219057089704902e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>1.605664683664091e-09</v>
+        <v>5.275620846622326e-21</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605664632315519e-09</v>
+        <v>2.731461193349775e-11</v>
       </c>
       <c r="F2" t="n">
-        <v>2.649211528367559e-09</v>
+        <v>-2.731459451213997e-11</v>
       </c>
       <c r="G2" t="n">
-        <v>4.384233835246623e-25</v>
+        <v>1.931432204919333e-10</v>
       </c>
       <c r="H2" t="n">
         <v>-1</v>
@@ -503,184 +503,184 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.589527014328168e-08</v>
+        <v>1.931437842995357e-10</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.707106788287462</v>
+        <v>3.45647655392911e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>0.707106767487931</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.674948991511367e-16</v>
+        <v>-4.901593125158773e-16</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.449358012366916e-16</v>
+        <v>-1.365726115649133e-10</v>
       </c>
       <c r="F3" t="n">
-        <v>4.390964146466659e-16</v>
+        <v>-1.365734379330293e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.852830920541078e-17</v>
+        <v>5.334071672239157e-17</v>
       </c>
       <c r="H3" t="n">
-        <v>1.986908646258517e-09</v>
+        <v>3.219057089704904e-11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.647451519611991e-18</v>
+        <v>3.219059206605705e-11</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.619826075277372e-09</v>
+        <v>-2.731460402022783e-11</v>
       </c>
       <c r="C4" t="n">
-        <v>-5.61982665973464e-09</v>
+        <v>2.459222016602375e-17</v>
       </c>
       <c r="D4" t="n">
-        <v>1.123965233737716e-08</v>
+        <v>2.731460631153943e-11</v>
       </c>
       <c r="E4" t="n">
-        <v>1.123965294947527e-08</v>
+        <v>1.030076663856088e-16</v>
       </c>
       <c r="F4" t="n">
+        <v>-9.760978308568577e-17</v>
+      </c>
+      <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" t="n">
-        <v>3.789887704342568e-17</v>
-      </c>
       <c r="H4" t="n">
-        <v>2.649211528429884e-09</v>
+        <v>1.931435135779936e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.896222632429972e-16</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7071067740856329</v>
+        <v>1.365730315576971e-10</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7071067948851638</v>
+        <v>-1.931437241363401e-10</v>
       </c>
       <c r="D5" t="n">
-        <v>5.140940327343803e-16</v>
+        <v>1.365730201011393e-10</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.616984122225855e-16</v>
+        <v>2.156604161989864e-16</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.947634616469525e-09</v>
+        <v>2.775036610834975e-17</v>
       </c>
       <c r="G5" t="n">
-        <v>-3.179053834040607e-09</v>
+        <v>-3.219057849715358e-11</v>
       </c>
       <c r="H5" t="n">
-        <v>-9.13924336893352e-18</v>
+        <v>-6.217400698932025e-21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7.947634969172131e-09</v>
+        <v>-4.464578364049936e-17</v>
       </c>
       <c r="B6" t="n">
-        <v>4.564240186975949e-16</v>
+        <v>-1.365730201327928e-10</v>
       </c>
       <c r="C6" t="n">
-        <v>7.566387285289142e-16</v>
+        <v>-4.432244306581715e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7071067820343554</v>
+        <v>1.365730315260431e-10</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7071067786893143</v>
+        <v>0.70710695654703</v>
       </c>
       <c r="F6" t="n">
-        <v>3.78100051938127e-16</v>
+        <v>-0.7071065052238935</v>
       </c>
       <c r="G6" t="n">
-        <v>2.631882682533075e-17</v>
+        <v>2.76967488568725e-17</v>
       </c>
       <c r="H6" t="n">
-        <v>2.270752738600764e-09</v>
+        <v>3.862868507645885e-11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>-6.806329781980839e-17</v>
       </c>
       <c r="B7" t="n">
-        <v>1.12396537618749e-08</v>
+        <v>-1.365730315260432e-10</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.123965358316452e-08</v>
+        <v>1.931434254926594e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.619826530810458e-09</v>
+        <v>-1.365730201327929e-10</v>
       </c>
       <c r="E7" t="n">
-        <v>5.619826262165686e-09</v>
+        <v>0.7071066058260215</v>
       </c>
       <c r="F7" t="n">
-        <v>1.42936809852426e-21</v>
+        <v>0.7071070571490938</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.649211528367233e-09</v>
+        <v>-6.897807984476963e-21</v>
       </c>
       <c r="H7" t="n">
-        <v>-4.224605041907179e-18</v>
+        <v>-2.735654737060307e-21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.086460737930065e-17</v>
+        <v>4.352180292143494e-20</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.382081487161585e-17</v>
+        <v>-0.7071067516922724</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.382078498124982e-17</v>
+        <v>2.317721104587532e-10</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7071067803387396</v>
+        <v>0.7071068106808213</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7071067836837808</v>
+        <v>-1.365730596991424e-10</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.589526917020537e-08</v>
+        <v>1.365729725290458e-10</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.973817292552433e-09</v>
+        <v>-3.862868507645885e-11</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.117202233402689e-17</v>
+        <v>-7.460879960565068e-21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.649211528367808e-09</v>
+        <v>1.931434253822942e-10</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.247930458352617e-09</v>
+        <v>-0.7071068106808214</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.247930610230958e-09</v>
+        <v>-2.984356843292659e-20</v>
       </c>
       <c r="D9" t="n">
-        <v>2.809913117886359e-09</v>
+        <v>-0.7071067516922726</v>
       </c>
       <c r="E9" t="n">
-        <v>2.809913198175429e-09</v>
+        <v>-1.365729919992527e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.263297912747426e-16</v>
+        <v>-1.365730790902023e-10</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4.973915112249691e-21</v>
       </c>
       <c r="H9" t="n">
-        <v>1.568020354767357e-25</v>
+        <v>7.685437548905829e-31</v>
       </c>
     </row>
   </sheetData>

--- a/final_eigenvec_three.xlsx
+++ b/final_eigenvec_three.xlsx
@@ -477,210 +477,210 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.217406212239571e-21</v>
+        <v>-8.779167981424272e-12</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.275625057681557e-21</v>
+        <v>-1.609528544845711e-11</v>
       </c>
       <c r="C2" t="n">
-        <v>3.219057089704902e-11</v>
+        <v>-9.657171269114809e-11</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275620846622326e-21</v>
+        <v>2.984846159787282e-20</v>
       </c>
       <c r="E2" t="n">
-        <v>2.731461193349775e-11</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.731459451213997e-11</v>
+        <v>6.217560184328447e-22</v>
       </c>
       <c r="G2" t="n">
-        <v>1.931432204919333e-10</v>
+        <v>1.727411654803868e-22</v>
       </c>
       <c r="H2" t="n">
-        <v>-1</v>
+        <v>4.692058802350669e-29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.931437842995357e-10</v>
+        <v>-1.478772354528204e-16</v>
       </c>
       <c r="B3" t="n">
-        <v>3.45647655392911e-16</v>
+        <v>-4.318785482454018e-16</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.901593125158773e-16</v>
+        <v>3.380523074071533e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.365726115649133e-10</v>
+        <v>-9.657171269114488e-11</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.365734379330293e-10</v>
+        <v>-1.9314236368038e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>5.334071672239157e-17</v>
+        <v>-9.656633869885605e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>3.219057089704904e-11</v>
+        <v>1.799092274089556e-19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.219059206605705e-11</v>
+        <v>-1.154681825411029e-15</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.731460402022783e-11</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="n">
-        <v>2.459222016602375e-17</v>
+        <v>-1.357950826736785e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>2.731460631153943e-11</v>
+        <v>-1.931434253822938e-11</v>
       </c>
       <c r="E4" t="n">
-        <v>1.030076663856088e-16</v>
+        <v>-1.609528544882413e-11</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.760978308568577e-17</v>
+        <v>-5.875310241946868e-17</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>-6.438105270984324e-12</v>
       </c>
       <c r="H4" t="n">
-        <v>1.931435135779936e-10</v>
+        <v>-2.061768773616638e-23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>-6.995381887074578e-17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-6.437929010255724e-12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-9.65763618108535e-12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.108536132856199e-21</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.208949519111344e-21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.541667303886157e-18</v>
+      </c>
+      <c r="G5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.365730315576971e-10</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-1.931437241363401e-10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.365730201011393e-10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2.156604161989864e-16</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.775036610834975e-17</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-3.219057849715358e-11</v>
-      </c>
       <c r="H5" t="n">
-        <v>-6.217400698932025e-21</v>
+        <v>4.598652985294717e-12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-4.464578364049936e-17</v>
+        <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.365730201327928e-10</v>
+        <v>8.405394991419988e-16</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.432244306581715e-16</v>
+        <v>-2.092220421464854e-16</v>
       </c>
       <c r="D6" t="n">
-        <v>1.365730315260431e-10</v>
+        <v>-9.657171269114646e-12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.70710695654703</v>
+        <v>-8.779167983118333e-12</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.7071065052238935</v>
+        <v>-6.438084802858598e-12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.76967488568725e-17</v>
+        <v>-2.547768570861929e-18</v>
       </c>
       <c r="H6" t="n">
-        <v>3.862868507645885e-11</v>
+        <v>-1.612184258303316e-23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.806329781980839e-17</v>
+        <v>-6.438114179409815e-12</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.365730315260432e-10</v>
+        <v>3.090924084001512e-27</v>
       </c>
       <c r="C7" t="n">
-        <v>1.931434254926594e-10</v>
+        <v>-1.931461135188511e-11</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.365730201327929e-10</v>
+        <v>6.402104597874661e-21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7071066058260215</v>
+        <v>-2.543480137108714e-21</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7071070571490938</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.897807984476963e-21</v>
+        <v>1.942890383709254e-16</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.735654737060307e-21</v>
+        <v>3.714296641956536e-12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4.352180292143494e-20</v>
+        <v>-9.657171269114728e-12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.7071067516922724</v>
+        <v>-1.93143425382294e-11</v>
       </c>
       <c r="C8" t="n">
-        <v>2.317721104587532e-10</v>
+        <v>2.897151380734415e-11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7071068106808213</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.365730596991424e-10</v>
+        <v>2.40217692243337e-21</v>
       </c>
       <c r="F8" t="n">
-        <v>1.365729725290458e-10</v>
+        <v>5.246550266921314e-23</v>
       </c>
       <c r="G8" t="n">
-        <v>-3.862868507645885e-11</v>
+        <v>1.780216013899641e-23</v>
       </c>
       <c r="H8" t="n">
-        <v>-7.460879960565068e-21</v>
+        <v>3.115111467656421e-12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.931434253822942e-10</v>
+        <v>-3.791118289460318e-23</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7071068106808214</v>
+        <v>-6.908155685931354e-23</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.984356843292659e-20</v>
+        <v>-8.419587640931153e-19</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7071067516922726</v>
+        <v>3.115352420863995e-12</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.365729919992527e-10</v>
+        <v>-4.346547728067738e-33</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.365730790902023e-10</v>
+        <v>3.714296641936368e-12</v>
       </c>
       <c r="G9" t="n">
-        <v>4.973915112249691e-21</v>
+        <v>4.598652985297356e-12</v>
       </c>
       <c r="H9" t="n">
-        <v>7.685437548905829e-31</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
